--- a/Data/Growth_database_2024_08_26.xlsx
+++ b/Data/Growth_database_2024_08_26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\Git working\Oyster-Projects\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B8B054-63D8-4277-A311-56B72DD08827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEEA1E5-0452-4C09-9306-E8DB87BC630F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{4EEDFDFF-E23A-4961-818C-C58F80CF28B0}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="3" xr2:uid="{4EEDFDFF-E23A-4961-818C-C58F80CF28B0}"/>
   </bookViews>
   <sheets>
     <sheet name="FixedLocation" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22043" uniqueCount="2549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22140" uniqueCount="2565">
   <si>
     <t>TripID</t>
   </si>
@@ -7687,16 +7687,70 @@
   </si>
   <si>
     <t>0255</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>R-04, B-02, Y-02</t>
+  </si>
+  <si>
+    <t>R-00, B-02, Y-00</t>
+  </si>
+  <si>
+    <t>R-01, B-04, Y-03</t>
+  </si>
+  <si>
+    <t>R-00, B-00, Y-02</t>
+  </si>
+  <si>
+    <t>R-02, B-01, Y-02</t>
+  </si>
+  <si>
+    <t>R-02, B-04, Y-00</t>
+  </si>
+  <si>
+    <t>R-02, B-00, Y-02</t>
+  </si>
+  <si>
+    <t>R-00, B-04, Y-00</t>
+  </si>
+  <si>
+    <t>R-06, B-04, Y-02</t>
+  </si>
+  <si>
+    <t>R-05, B-02, Y-02</t>
+  </si>
+  <si>
+    <t>R-03, B-02, Y-03</t>
+  </si>
+  <si>
+    <t>R-01, B-00, Y-00</t>
+  </si>
+  <si>
+    <t>R-00, B-00, Y-00</t>
+  </si>
+  <si>
+    <t>R-00, B-00, Y-01</t>
+  </si>
+  <si>
+    <t>R-01, B-02, Y-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7722,12 +7776,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8064,13 +8117,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C4578C-0DCC-495A-ACBA-AB6671F0CB7E}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
@@ -8105,7 +8158,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>2502</v>
       </c>
       <c r="B1" t="s">
@@ -8203,7 +8256,7 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2545</v>
       </c>
       <c r="B2" t="s">
@@ -8301,7 +8354,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2546</v>
       </c>
       <c r="B3" t="s">
@@ -8399,7 +8452,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2547</v>
       </c>
       <c r="B4" t="s">
@@ -8497,7 +8550,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2548</v>
       </c>
       <c r="B5" t="s">
@@ -10423,11 +10476,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88E48CF-1455-4B7A-8B33-584902295624}">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10447,9 +10498,10 @@
     <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -10501,8 +10553,11 @@
       <c r="Q1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -10554,8 +10609,11 @@
       <c r="Q2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -10607,8 +10665,11 @@
       <c r="Q3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -10660,8 +10721,11 @@
       <c r="Q4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -10713,8 +10777,11 @@
       <c r="Q5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -10766,8 +10833,11 @@
       <c r="Q6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -10819,8 +10889,11 @@
       <c r="Q7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -10872,8 +10945,11 @@
       <c r="Q8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -10925,8 +11001,11 @@
       <c r="Q9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -10978,8 +11057,11 @@
       <c r="Q10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -11031,8 +11113,11 @@
       <c r="Q11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -11084,8 +11169,11 @@
       <c r="Q12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -11137,8 +11225,11 @@
       <c r="Q13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -11190,8 +11281,11 @@
       <c r="Q14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -11243,8 +11337,11 @@
       <c r="Q15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -11296,8 +11393,11 @@
       <c r="Q16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -11349,8 +11449,11 @@
       <c r="Q17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -11402,8 +11505,11 @@
       <c r="Q18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>117</v>
       </c>
@@ -11455,8 +11561,11 @@
       <c r="Q19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -11508,8 +11617,11 @@
       <c r="Q20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -11561,8 +11673,11 @@
       <c r="Q21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -11614,8 +11729,11 @@
       <c r="Q22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -11667,8 +11785,11 @@
       <c r="Q23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -11720,8 +11841,11 @@
       <c r="Q24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -11773,8 +11897,11 @@
       <c r="Q25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -11826,8 +11953,11 @@
       <c r="Q26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -11879,8 +12009,11 @@
       <c r="Q27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -11932,8 +12065,11 @@
       <c r="Q28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -11985,8 +12121,11 @@
       <c r="Q29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -12038,8 +12177,11 @@
       <c r="Q30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -12091,8 +12233,11 @@
       <c r="Q31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -12144,8 +12289,11 @@
       <c r="Q32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -12197,8 +12345,11 @@
       <c r="Q33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -12250,8 +12401,11 @@
       <c r="Q34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -12303,8 +12457,11 @@
       <c r="Q35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -12356,8 +12513,11 @@
       <c r="Q36" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -12409,8 +12569,11 @@
       <c r="Q37" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -12462,8 +12625,11 @@
       <c r="Q38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -12515,8 +12681,11 @@
       <c r="Q39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>146</v>
       </c>
@@ -12568,8 +12737,11 @@
       <c r="Q40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -12621,8 +12793,11 @@
       <c r="Q41" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>148</v>
       </c>
@@ -12674,8 +12849,11 @@
       <c r="Q42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R42" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -12727,8 +12905,11 @@
       <c r="Q43" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -12780,8 +12961,11 @@
       <c r="Q44" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -12833,8 +13017,11 @@
       <c r="Q45" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>154</v>
       </c>
@@ -12886,8 +13073,11 @@
       <c r="Q46" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -12939,8 +13129,11 @@
       <c r="Q47" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>156</v>
       </c>
@@ -12992,8 +13185,11 @@
       <c r="Q48" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>157</v>
       </c>
@@ -13045,8 +13241,11 @@
       <c r="Q49" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R49" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -13098,8 +13297,11 @@
       <c r="Q50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -13151,8 +13353,11 @@
       <c r="Q51" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>162</v>
       </c>
@@ -13204,8 +13409,11 @@
       <c r="Q52" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R52" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -13257,8 +13465,11 @@
       <c r="Q53" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -13310,8 +13521,11 @@
       <c r="Q54" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R54" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -13363,8 +13577,11 @@
       <c r="Q55" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R55" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>166</v>
       </c>
@@ -13416,8 +13633,11 @@
       <c r="Q56" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R56" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>169</v>
       </c>
@@ -13469,8 +13689,11 @@
       <c r="Q57" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R57" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -13522,8 +13745,11 @@
       <c r="Q58" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R58" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>171</v>
       </c>
@@ -13575,8 +13801,11 @@
       <c r="Q59" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R59" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>172</v>
       </c>
@@ -13628,8 +13857,11 @@
       <c r="Q60" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>173</v>
       </c>
@@ -13681,8 +13913,11 @@
       <c r="Q61" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>174</v>
       </c>
@@ -13734,8 +13969,11 @@
       <c r="Q62" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R62" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>177</v>
       </c>
@@ -13787,8 +14025,11 @@
       <c r="Q63" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R63" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -13840,8 +14081,11 @@
       <c r="Q64" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R64" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>179</v>
       </c>
@@ -13893,8 +14137,11 @@
       <c r="Q65" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R65" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>180</v>
       </c>
@@ -13946,8 +14193,11 @@
       <c r="Q66" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>181</v>
       </c>
@@ -13999,8 +14249,11 @@
       <c r="Q67" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -14052,8 +14305,11 @@
       <c r="Q68" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>185</v>
       </c>
@@ -14105,8 +14361,11 @@
       <c r="Q69" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>186</v>
       </c>
@@ -14158,8 +14417,11 @@
       <c r="Q70" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>187</v>
       </c>
@@ -14211,8 +14473,11 @@
       <c r="Q71" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R71" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>188</v>
       </c>
@@ -14264,8 +14529,11 @@
       <c r="Q72" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R72" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>189</v>
       </c>
@@ -14317,8 +14585,11 @@
       <c r="Q73" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R73" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>190</v>
       </c>
@@ -14370,8 +14641,11 @@
       <c r="Q74" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R74" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>193</v>
       </c>
@@ -14423,8 +14697,11 @@
       <c r="Q75" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R75" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>194</v>
       </c>
@@ -14476,8 +14753,11 @@
       <c r="Q76" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R76" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>195</v>
       </c>
@@ -14529,8 +14809,11 @@
       <c r="Q77" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R77" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>196</v>
       </c>
@@ -14582,8 +14865,11 @@
       <c r="Q78" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R78" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>197</v>
       </c>
@@ -14635,8 +14921,11 @@
       <c r="Q79" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R79" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -14688,8 +14977,11 @@
       <c r="Q80" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R80" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>201</v>
       </c>
@@ -14741,8 +15033,11 @@
       <c r="Q81" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R81" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>202</v>
       </c>
@@ -14794,8 +15089,11 @@
       <c r="Q82" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R82" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>203</v>
       </c>
@@ -14847,8 +15145,11 @@
       <c r="Q83" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R83" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -14900,8 +15201,11 @@
       <c r="Q84" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R84" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>205</v>
       </c>
@@ -14953,8 +15257,11 @@
       <c r="Q85" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R85" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>206</v>
       </c>
@@ -15006,8 +15313,11 @@
       <c r="Q86" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R86" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>209</v>
       </c>
@@ -15059,8 +15369,11 @@
       <c r="Q87" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R87" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>210</v>
       </c>
@@ -15112,8 +15425,11 @@
       <c r="Q88" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R88" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>211</v>
       </c>
@@ -15165,8 +15481,11 @@
       <c r="Q89" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R89" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>212</v>
       </c>
@@ -15218,8 +15537,11 @@
       <c r="Q90" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R90" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>213</v>
       </c>
@@ -15271,8 +15593,11 @@
       <c r="Q91" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R91" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>214</v>
       </c>
@@ -15324,8 +15649,11 @@
       <c r="Q92" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R92" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>217</v>
       </c>
@@ -15377,8 +15705,11 @@
       <c r="Q93" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R93" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>218</v>
       </c>
@@ -15430,8 +15761,11 @@
       <c r="Q94" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R94" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>219</v>
       </c>
@@ -15483,8 +15817,11 @@
       <c r="Q95" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R95" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -15536,8 +15873,11 @@
       <c r="Q96" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R96" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>221</v>
       </c>
@@ -15589,8 +15929,12 @@
       <c r="Q97" t="s">
         <v>16</v>
       </c>
+      <c r="R97" t="s">
+        <v>2564</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
